--- a/docs/testCases/secondSprint/TestCase-Bubble-Design.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Bubble-Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B2F0B4-40B6-4F64-AF3D-3BDDF201B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF97CA3-B29F-4C04-B560-EBB11F928C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Pass / Fail / Not executed / Suspended</t>
-  </si>
-  <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
   </si>
   <si>
     <t>This link should redirect me to main page</t>
@@ -206,6 +203,9 @@
       </rPr>
       <t xml:space="preserve"> - The "Home" page should show one gray bubble (top center) and two dark bubbles (center and bottom center). On the "Pricing" page, you should see one gray bubble (top right) and one dark bubble (bottom center). The "About" page should show one gray bubble (top right) and one dark bubble (bottom center). On the "Contact" page, you should see one gray bubble (top right) and one dark bubble (bottom center). You should see a single dark bubble in the navigation dropdown.</t>
     </r>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -394,20 +394,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -422,9 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -434,41 +463,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,7 +754,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,19 +767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -788,25 +788,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -822,10 +822,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -850,29 +850,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22">
         <v>45268</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="31"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -891,28 +891,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -921,7 +921,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -931,7 +931,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -940,7 +940,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -950,7 +950,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -959,7 +959,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -969,7 +969,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -978,7 +978,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -988,7 +988,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -997,7 +997,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1007,7 +1007,7 @@
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="15"/>
@@ -1016,7 +1016,7 @@
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1026,16 +1026,16 @@
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -1053,60 +1053,60 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>30</v>
+      <c r="E20" s="36"/>
+      <c r="F20" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
-        <v>31</v>
+      <c r="I20" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
@@ -1115,21 +1115,21 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
-        <v>30</v>
+      <c r="B21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
-        <v>31</v>
+      <c r="I21" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
@@ -1138,27 +1138,59 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="14" t="s">
-        <v>32</v>
+      <c r="I22" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1173,38 +1205,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
